--- a/Assets/Common/Excels/Division.xlsx
+++ b/Assets/Common/Excels/Division.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT_UNITY\unity6-division-like-multiplay\Assets\Common\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3729A736-D822-416B-8A05-CAC21442E234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D6BAC1-F471-4742-8E70-B9DDC555F9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB69BD87-5607-40EA-9DC2-CE69CDA1D7EC}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>idstring</t>
   </si>
@@ -268,6 +268,16 @@
   </si>
   <si>
     <t>MouseSmoothing</t>
+  </si>
+  <si>
+    <t>MouseSmoothing_Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mouse Smoothing</t>
+  </si>
+  <si>
+    <t>Control the amount of smoothing applied to the mouse's movement. Usefull for mice with a low dpi.</t>
   </si>
 </sst>
 </file>
@@ -352,8 +362,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,7 +372,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,7 +712,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -929,10 +939,16 @@
       <c r="A24" t="s">
         <v>55</v>
       </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Common/Excels/Division.xlsx
+++ b/Assets/Common/Excels/Division.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT_UNITY\unity6-division-like-multiplay\Assets\Common\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D6BAC1-F471-4742-8E70-B9DDC555F9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B291A9F1-DA22-4EF3-9650-993BF1C3ECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB69BD87-5607-40EA-9DC2-CE69CDA1D7EC}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>idstring</t>
   </si>
@@ -278,6 +278,84 @@
   </si>
   <si>
     <t>Control the amount of smoothing applied to the mouse's movement. Usefull for mice with a low dpi.</t>
+  </si>
+  <si>
+    <t>GraphicQuality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graphics Quality</t>
+  </si>
+  <si>
+    <t>GraphicQuality_Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set graphic options to recommended levels for low, medium, high, and ultra-high-end PCs.</t>
+  </si>
+  <si>
+    <t>Brightness</t>
+  </si>
+  <si>
+    <t>Brightness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brightness_Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change the brightness of the game.</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust the contrast.</t>
+  </si>
+  <si>
+    <t>Contrast_Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-Sync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-Sync_Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sync the display of the scene to the refresh rate of the monitor to avoid screen tearing.</t>
+  </si>
+  <si>
+    <t>FrameRateLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frame Rate Limit</t>
+  </si>
+  <si>
+    <t>FrameRateLimit_Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit the framerate to achieve consistent graphics and network performance.</t>
+  </si>
+  <si>
+    <t>CustomFPSLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Custom FPS Limit</t>
+  </si>
+  <si>
+    <t>CustomFPSLimit_Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set a custom framerate limit.</t>
   </si>
 </sst>
 </file>
@@ -709,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7D4C5-7AB3-403E-B56C-0D30A844EF50}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -951,6 +1029,102 @@
         <v>58</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Common/Excels/Division.xlsx
+++ b/Assets/Common/Excels/Division.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT_UNITY\unity6-division-like-multiplay\Assets\Common\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS_UNITY\unity6-division-like-multiplay\Assets\Common\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B291A9F1-DA22-4EF3-9650-993BF1C3ECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE44B916-6D41-413D-ABE9-BEDB1F1D011B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB69BD87-5607-40EA-9DC2-CE69CDA1D7EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EB69BD87-5607-40EA-9DC2-CE69CDA1D7EC}"/>
   </bookViews>
   <sheets>
     <sheet name="SettingsScene" sheetId="1" r:id="rId1"/>
+    <sheet name="MainMenuScene" sheetId="3" r:id="rId2"/>
+    <sheet name="KeyMappingPanel" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,8 +59,52 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F8C40FAF-A12F-436D-BF95-5794F145FFCE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Any string or reference ID from the IDs sheet can be entered in this column</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{DBBF03A9-9C81-41D1-ADBA-84686427158A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Any string or reference ID from the IDs sheet can be entered in this column</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
   <si>
     <t>idstring</t>
   </si>
@@ -356,6 +402,121 @@
   </si>
   <si>
     <t>Set a custom framerate limit.</t>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language_Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set the language for all text found in-game.</t>
+  </si>
+  <si>
+    <t>MainMenu_SinglePlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainMenu_MultiPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainMenu_Training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainMenu_Settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainMenu_GitHubLink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainMenu_Quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_Shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move Forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move Backwards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move Right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_Space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Cover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -787,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7D4C5-7AB3-403E-B56C-0D30A844EF50}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1125,6 +1286,196 @@
         <v>80</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37AA047-7374-4CD0-A327-4E6B32FA3401}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F40C500-2034-4678-A5DF-3BC7DB48F6EB}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Common/Excels/Division.xlsx
+++ b/Assets/Common/Excels/Division.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS_UNITY\unity6-division-like-multiplay\Assets\Common\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT_UNITY\unity6-division-like-multiplay\Assets\Common\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE44B916-6D41-413D-ABE9-BEDB1F1D011B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08823394-00C2-4C8E-A661-B0E82CCDA47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EB69BD87-5607-40EA-9DC2-CE69CDA1D7EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB69BD87-5607-40EA-9DC2-CE69CDA1D7EC}"/>
   </bookViews>
   <sheets>
     <sheet name="SettingsScene" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="157">
   <si>
     <t>idstring</t>
   </si>
@@ -217,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컨트롤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그래픽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,10 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임플레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>벤치마크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -516,6 +508,202 @@
   </si>
   <si>
     <t>Use Cover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoom In / Melee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_Ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_Tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Grenade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Skill 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Skill 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Armor Kit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_LMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_RMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Primary Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Secondary Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Sidearm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Signature Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Mouse Cursor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_Alt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글 플레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티 플레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃헙 링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 플레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 볼륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디오 전체 볼륨을 조정합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악 볼륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내 음악 볼륨을 조절합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음 볼륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFXVolume_Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내 음향 효과 볼륨을 조절합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화 볼륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 간 대화 볼륨을 조절합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7D4C5-7AB3-403E-B56C-0D30A844EF50}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -996,7 +1184,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1007,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1018,7 +1206,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1029,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1040,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1051,7 +1239,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1061,6 +1249,9 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1069,6 +1260,9 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1077,6 +1271,9 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1085,6 +1282,9 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
+      <c r="D12" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1093,213 +1293,233 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1314,13 +1534,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1339,50 +1560,68 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1394,16 +1633,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F40C500-2034-4678-A5DF-3BC7DB48F6EB}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1422,58 +1662,186 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
         <v>108</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Common/Excels/Division.xlsx
+++ b/Assets/Common/Excels/Division.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT_UNITY\unity6-division-like-multiplay\Assets\Common\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08823394-00C2-4C8E-A661-B0E82CCDA47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0F8FAE-273A-4324-9616-3CA5EF2C72E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB69BD87-5607-40EA-9DC2-CE69CDA1D7EC}"/>
   </bookViews>
   <sheets>
     <sheet name="SettingsScene" sheetId="1" r:id="rId1"/>
-    <sheet name="MainMenuScene" sheetId="3" r:id="rId2"/>
-    <sheet name="KeyMappingPanel" sheetId="2" r:id="rId3"/>
+    <sheet name="Common" sheetId="4" r:id="rId2"/>
+    <sheet name="MainMenuScene" sheetId="3" r:id="rId3"/>
+    <sheet name="KeyMappingPanel" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,6 +66,28 @@
     <author>PC</author>
   </authors>
   <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{91E6B797-F785-47B4-A9E9-07EABC4DE32F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Any string or reference ID from the IDs sheet can be entered in this column</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+  </authors>
+  <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F8C40FAF-A12F-436D-BF95-5794F145FFCE}">
       <text>
         <r>
@@ -81,7 +104,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -104,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="181">
   <si>
     <t>idstring</t>
   </si>
@@ -704,6 +727,102 @@
   </si>
   <si>
     <t>캐릭터 간 대화 볼륨을 조절합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 적중 시 오디오 피드백 증폭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 탄환을 적중시킬 시 오디오 볼륨이 미세하게 증폭됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 감도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변을 둘러볼 때의 마우스 감도를 조절합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 조준 감도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확대 시 마우스 감도를 조절합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 가속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 가속을 켜거나 끕니다. 켜진 경우 마우스를 빠르게 움질일수록 카메라 이동 속도가 빨라집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 이동 유연성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스의 움직임의 부드러운 정도를 조정합니다. 낮은 dpi를 사용하는 마우스에 유용합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래픽 화질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래픽 옵션을 낮은 사양 및 중간 사양, 높은 사양, 최고 사양의 컴퓨터에 적합한 수준으로 설정합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 화면의 밝기를 변경합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대비를 조절합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수직동기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 디스플레이를 모니터의 화면 재생 빈도에 동기화하여 화면의 깨짐 현상을 방지합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일관된 그래픽 및 네트워크 성능을 위해 프레임 속도를 제한합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 프레임 수 제한 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임 제한을 설정합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 게임 내 텍스트에 사용할 언어를 설정합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,7 +1258,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1266,7 @@
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="104" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.875" customWidth="1"/>
+    <col min="4" max="4" width="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1330,196 +1449,268 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="C24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
       <c r="C26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>59</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>65</v>
       </c>
       <c r="C31" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>68</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>69</v>
       </c>
       <c r="C34" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>71</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
       <c r="C36" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>75</v>
       </c>
       <c r="C37" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>77</v>
       </c>
       <c r="C38" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>79</v>
       </c>
       <c r="C39" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>80</v>
       </c>
       <c r="C40" t="s">
         <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1530,6 +1721,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF87CA36-4092-4317-B906-AA485A040E79}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37AA047-7374-4CD0-A327-4E6B32FA3401}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1631,7 +1853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F40C500-2034-4678-A5DF-3BC7DB48F6EB}">
   <dimension ref="A1:D24"/>
   <sheetViews>

--- a/Assets/Common/Excels/Division.xlsx
+++ b/Assets/Common/Excels/Division.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT_UNITY\unity6-division-like-multiplay\Assets\Common\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0F8FAE-273A-4324-9616-3CA5EF2C72E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73657853-444C-4855-9433-9D7A045AA2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB69BD87-5607-40EA-9DC2-CE69CDA1D7EC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EB69BD87-5607-40EA-9DC2-CE69CDA1D7EC}"/>
   </bookViews>
   <sheets>
     <sheet name="SettingsScene" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="220">
   <si>
     <t>idstring</t>
   </si>
@@ -823,6 +823,161 @@
   </si>
   <si>
     <t>모든 게임 내 텍스트에 사용할 언어를 설정합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>켜기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끄기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Custom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set whether game runs in full-screen or windowsed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windowed_Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windowed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windowed(Fullscreen)</t>
+  </si>
+  <si>
+    <t>Windowed(Fullscreen)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fullscreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set the resolution for the game.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set the rate at which the display is refreshed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnableReducedLatency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduces input latency, but may cuase lower frame rate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnableDX12Renderer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable DX12 Render. Requires Window 10 or newer. Requires a restart.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable High Dynamic Range to achieve a better picture. Only available on compatible hardware.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 전체화면에서 실행할지 창 모드에서 실행할지 설정합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창 모드(전체 화면)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolution_Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshRate_Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnableReducedLatency_Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnableDX12Renderer_Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DX12 렌더링 활성화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1255,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7D4C5-7AB3-403E-B56C-0D30A844EF50}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1693,23 +1848,133 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>80</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C58" t="s">
         <v>81</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D58" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1722,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF87CA36-4092-4317-B906-AA485A040E79}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1742,6 +2007,98 @@
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1857,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F40C500-2034-4678-A5DF-3BC7DB48F6EB}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Common/Excels/Division.xlsx
+++ b/Assets/Common/Excels/Division.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT_UNITY\unity6-division-like-multiplay\Assets\Common\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73657853-444C-4855-9433-9D7A045AA2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC9485-56D3-45DC-BFA6-1CE80A9B5F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EB69BD87-5607-40EA-9DC2-CE69CDA1D7EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EB69BD87-5607-40EA-9DC2-CE69CDA1D7EC}"/>
   </bookViews>
   <sheets>
-    <sheet name="SettingsScene" sheetId="1" r:id="rId1"/>
-    <sheet name="Common" sheetId="4" r:id="rId2"/>
-    <sheet name="MainMenuScene" sheetId="3" r:id="rId3"/>
+    <sheet name="Common" sheetId="4" r:id="rId1"/>
+    <sheet name="MainMenuScene" sheetId="3" r:id="rId2"/>
+    <sheet name="SettingsScene" sheetId="1" r:id="rId3"/>
     <sheet name="KeyMappingPanel" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
     <author>PC</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E1DCE9D7-92F7-4C6C-B8C5-2DA95E006FED}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{91E6B797-F785-47B4-A9E9-07EABC4DE32F}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
     <author>PC</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{91E6B797-F785-47B4-A9E9-07EABC4DE32F}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F8C40FAF-A12F-436D-BF95-5794F145FFCE}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
     <author>PC</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F8C40FAF-A12F-436D-BF95-5794F145FFCE}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E1DCE9D7-92F7-4C6C-B8C5-2DA95E006FED}">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="263">
   <si>
     <t>idstring</t>
   </si>
@@ -886,10 +886,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Windowed_Mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Windowed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -978,6 +974,182 @@
   </si>
   <si>
     <t>DX12 렌더링 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해상도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 해상도를 설정합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 재생 빈도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 재생 빈도를 설정합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 대기 시간이 감소하지만, 프레임 속도도 감소할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기 시간 감소 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable Reduced Latency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DX12 렌더링을 활성화합니다. Windows 10 이상의 시스템이어야 하며 다시 시작해야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDR_Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이 다이내믹 레인지 기능을 활성화하여 영상의 품질을 높입니다. 호환되는 하드웨어에서만 사용할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windowed Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WindowedMode_Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WindowedMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈도우 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable DX12 Renderer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울트라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커스텀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력 질주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄폐물 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올라가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재장전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확대 / 근접 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예비 무기 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주 무기 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 무기 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그니처 무기 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수류탄 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요원 스킬 1 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요원 스킬 2 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구 키트 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 커서 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1409,22 +1581,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7D4C5-7AB3-403E-B56C-0D30A844EF50}">
-  <dimension ref="A1:D58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF87CA36-4092-4317-B906-AA485A040E79}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1439,543 +1611,113 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" t="s">
-        <v>195</v>
-      </c>
-      <c r="D39" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>199</v>
-      </c>
-      <c r="C41" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" t="s">
-        <v>200</v>
-      </c>
-      <c r="D42" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>214</v>
-      </c>
-      <c r="C44" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C46" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>217</v>
-      </c>
-      <c r="C48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>206</v>
-      </c>
-      <c r="D49" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>218</v>
-      </c>
-      <c r="C50" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D58" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1986,129 +1728,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF87CA36-4092-4317-B906-AA485A040E79}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37AA047-7374-4CD0-A327-4E6B32FA3401}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -2210,12 +1829,644 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7D4C5-7AB3-403E-B56C-0D30A844EF50}">
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>217</v>
+      </c>
+      <c r="C51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F40C500-2034-4678-A5DF-3BC7DB48F6EB}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2246,6 +2497,9 @@
       <c r="C2" t="s">
         <v>101</v>
       </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2254,6 +2508,9 @@
       <c r="C3" t="s">
         <v>102</v>
       </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2262,6 +2519,9 @@
       <c r="C4" t="s">
         <v>103</v>
       </c>
+      <c r="D4" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2270,6 +2530,9 @@
       <c r="C5" t="s">
         <v>104</v>
       </c>
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2278,6 +2541,9 @@
       <c r="C6" t="s">
         <v>105</v>
       </c>
+      <c r="D6" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2286,6 +2552,9 @@
       <c r="C7" t="s">
         <v>100</v>
       </c>
+      <c r="D7" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2294,6 +2563,9 @@
       <c r="C8" t="s">
         <v>107</v>
       </c>
+      <c r="D8" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2302,6 +2574,9 @@
       <c r="C9" t="s">
         <v>108</v>
       </c>
+      <c r="D9" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2310,6 +2585,9 @@
       <c r="C10" t="s">
         <v>109</v>
       </c>
+      <c r="D10" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2318,6 +2596,9 @@
       <c r="C11" t="s">
         <v>110</v>
       </c>
+      <c r="D11" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2326,6 +2607,9 @@
       <c r="C12" t="s">
         <v>130</v>
       </c>
+      <c r="D12" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2334,6 +2618,9 @@
       <c r="C13" t="s">
         <v>131</v>
       </c>
+      <c r="D13" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2342,6 +2629,9 @@
       <c r="C14" t="s">
         <v>132</v>
       </c>
+      <c r="D14" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2350,6 +2640,9 @@
       <c r="C15" t="s">
         <v>133</v>
       </c>
+      <c r="D15" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2358,69 +2651,96 @@
       <c r="C16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>120</v>
       </c>
       <c r="C17" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>122</v>
       </c>
       <c r="C18" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>124</v>
       </c>
       <c r="C19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>135</v>
       </c>
       <c r="C20" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>134</v>
       </c>
       <c r="C21" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>126</v>
       </c>
       <c r="C22" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>128</v>
       </c>
       <c r="C23" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>139</v>
       </c>
       <c r="C24" t="s">
         <v>138</v>
+      </c>
+      <c r="D24" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
